--- a/2_Test_Cases/Test_Cases_Demoblaze.xlsx
+++ b/2_Test_Cases/Test_Cases_Demoblaze.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC1B9B2-BD0E-407F-A745-8F6F9429DA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DDBBDA0-C1CF-4D40-A517-C2BCB2ABC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sign UP" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="154">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -541,12 +541,6 @@
   </si>
   <si>
     <t>Functional test for removing items</t>
-  </si>
-  <si>
-    <t>TC-DMB-CART-004</t>
-  </si>
-  <si>
-    <t>TC-DMB-CART-005</t>
   </si>
 </sst>
 </file>
@@ -600,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -647,19 +641,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -723,9 +704,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -765,10 +745,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -792,36 +772,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1161,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565F4F77-F1FE-4ED0-86CA-3B6583718B1A}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1179,300 +1158,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="76.5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="78" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="74.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="76.5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="76.5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="76.5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1485,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1502,296 +1481,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="81" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="81" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="75.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="78.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="76.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="87.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1822,150 +1801,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="81" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60.75">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60.75">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1994,192 +1973,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30.75">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30.75">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30.75">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="17" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2190,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7102956-28CE-4D14-8F5C-407BE3317B1F}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2208,192 +2187,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="38" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="31" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30.75">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="31" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
